--- a/wpt/scripts/wpt_square.xlsx
+++ b/wpt/scripts/wpt_square.xlsx
@@ -37,7 +37,6 @@
     </font>
     <font>
       <sz val="7.500000"/>
-      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -600,7 +599,7 @@
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="1">
-        <v>37.184102033018803</v>
+        <v>37.184133018799997</v>
       </c>
       <c r="B3" s="1">
         <v>126.63730988848999</v>
